--- a/bl_resources/Resources/prognoz.xlsx
+++ b/bl_resources/Resources/prognoz.xlsx
@@ -351,10 +351,14 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
